--- a/data/trans_dic/P1408-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1408-Clase-trans_dic.xlsx
@@ -708,19 +708,19 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.008855468412825302</v>
+        <v>0.009360491534687251</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006481483171032541</v>
+        <v>0.006063952961247881</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005920857082639276</v>
+        <v>0.004780340048242664</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.005600554166813315</v>
+        <v>0.00559760695487262</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.004847212410691719</v>
+        <v>0.005769936969846105</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.009849003432534011</v>
+        <v>0.01018904678007223</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.001246672056970644</v>
+        <v>0.001256943114252372</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.004660998437225774</v>
+        <v>0.0048979631582646</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.006864350263524248</v>
+        <v>0.007197589614889618</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03768054319449731</v>
+        <v>0.03838070676616234</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01588665032904872</v>
+        <v>0.01642453215843117</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03088130667214331</v>
+        <v>0.0332569734111512</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02235296220813207</v>
+        <v>0.02186679505911833</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03375695438821595</v>
+        <v>0.03395761129377886</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01947841055534864</v>
+        <v>0.01652626872001053</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01784772568914562</v>
+        <v>0.01813717708153654</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02107762922807418</v>
+        <v>0.02120610923630912</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03005477016451608</v>
+        <v>0.03240487889851596</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01282360722470703</v>
+        <v>0.01199846140684689</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0202832978561114</v>
+        <v>0.02169969248749566</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01881694347848472</v>
+        <v>0.019073485606501</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.002748772244952611</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01192114802135781</v>
+        <v>0.0119211480213578</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01748635733290448</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02506225257740448</v>
+        <v>0.0268980455735813</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002524796903636176</v>
+        <v>0.002555460255747735</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.005207580992417904</v>
+        <v>0.005885711218409092</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.007049097481032572</v>
+        <v>0.007451014395138549</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002594277462218254</v>
+        <v>0.002628071055790023</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.006930188386671711</v>
+        <v>0.007504252936102649</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01893008236092071</v>
+        <v>0.01953762532979254</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.002663466211136847</v>
+        <v>0.002706451069373165</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.001386085143789655</v>
+        <v>0.001535480950249836</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.008233871318085149</v>
+        <v>0.008457227950655899</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06397869846187795</v>
+        <v>0.06686530650271034</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03402262463297503</v>
+        <v>0.03701914900329252</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01367747639307813</v>
+        <v>0.01593746666632982</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0241777538091382</v>
+        <v>0.02565941194865955</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03833007545153006</v>
+        <v>0.03693316890768276</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01637660739969741</v>
+        <v>0.01329636313511437</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02288108079883086</v>
+        <v>0.02368739681070224</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02678065856699815</v>
+        <v>0.0261218450827658</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04350485525220716</v>
+        <v>0.04375520413020512</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0245076226732899</v>
+        <v>0.02249547218720751</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01372851003683086</v>
+        <v>0.01418747321774547</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02079856398987567</v>
+        <v>0.02171335540329411</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02155848880134552</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03143507569199942</v>
+        <v>0.03143507569199943</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03824473580913201</v>
@@ -980,38 +980,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03096240050282532</v>
+        <v>0.02956414049951682</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01545389755993615</v>
+        <v>0.01479806208182583</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01128358604803466</v>
+        <v>0.01149161831885522</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01874922305483921</v>
+        <v>0.01926249454848042</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01281255661528332</v>
+        <v>0.0130525540990681</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003676161676748252</v>
+        <v>0.003647871938193883</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.02315233107568184</v>
+        <v>0.02307336278817398</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03162254176015712</v>
+        <v>0.03163080961115322</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01393330516682683</v>
+        <v>0.01406184835091583</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.008854081011621825</v>
+        <v>0.008554379611074034</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02314855644733744</v>
+        <v>0.02362923900077633</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07157797867105867</v>
+        <v>0.06534836097739678</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04537009520990032</v>
+        <v>0.04415701549300773</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03751012951246868</v>
+        <v>0.03795694821067291</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04999543518564467</v>
+        <v>0.053519871720847</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07353876622012247</v>
+        <v>0.07724200112728644</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03484058749357624</v>
+        <v>0.03396467074341961</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.07141107842939397</v>
+        <v>0.07039784937234525</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06242909158143536</v>
+        <v>0.06296063754241409</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03583628369955631</v>
+        <v>0.0361756327217847</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03065251872759635</v>
+        <v>0.02860988270257445</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04812766691721369</v>
+        <v>0.04979068370779086</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03542560502303546</v>
+        <v>0.03507497812780866</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02285767942856787</v>
+        <v>0.02296113929101299</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01719978818475235</v>
+        <v>0.01761448887567964</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02273060168473584</v>
+        <v>0.02306581918905845</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01917074737902455</v>
+        <v>0.01972365007729472</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.001353413253011473</v>
+        <v>0.001345270666460292</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.005238166995936792</v>
+        <v>0.005742160367419299</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01092904299512516</v>
+        <v>0.01105099503606236</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03209105386749995</v>
+        <v>0.0325786237153378</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01587897418268188</v>
+        <v>0.01576289001257377</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01461824458818972</v>
+        <v>0.01466748519451231</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02026000967097574</v>
+        <v>0.01961173706248939</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05884473872392865</v>
+        <v>0.05785437812398683</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04433124926187657</v>
+        <v>0.04408360685046686</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03641247632763529</v>
+        <v>0.0363580149429821</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04236421622872917</v>
+        <v>0.04232477099021614</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04658461289411736</v>
+        <v>0.04468147866645839</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0137040228366421</v>
+        <v>0.01288333277001081</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02242887025766993</v>
+        <v>0.02352081334075792</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02637299217367694</v>
+        <v>0.0273585677097235</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04851901439932248</v>
+        <v>0.0490586365044386</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03032531070603837</v>
+        <v>0.03000460072848251</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02730561605137861</v>
+        <v>0.028002940501554</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03255624436288438</v>
+        <v>0.03293958892248939</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.02438969991386058</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.04168444027790413</v>
+        <v>0.04168444027790411</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.02533898265866424</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04662709794420586</v>
+        <v>0.04789430906684573</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01199012867808492</v>
+        <v>0.01166914753189074</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01411088909285028</v>
+        <v>0.01412644797672974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02864534327605444</v>
+        <v>0.02804384808733252</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01449728566385977</v>
+        <v>0.01470526191537995</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01431052273799777</v>
+        <v>0.01485821064566703</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.009507358454511792</v>
+        <v>0.009459105285410167</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03043981052385401</v>
+        <v>0.02998005523053332</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0307317659739666</v>
+        <v>0.02998226553845342</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01626797236050547</v>
+        <v>0.01511976753729734</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01401405683097546</v>
+        <v>0.01399692834112026</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03282337707575179</v>
+        <v>0.03231651233468199</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1008865706535642</v>
+        <v>0.1013141271840578</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03823440949237036</v>
+        <v>0.0392095940097109</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03905564541710382</v>
+        <v>0.03945824428726973</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06055288441755718</v>
+        <v>0.05912021089213096</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04194731733662117</v>
+        <v>0.04159324493230477</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03796201094801852</v>
+        <v>0.03778132032986214</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03045609747191899</v>
+        <v>0.03014835198867106</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05704680876754986</v>
+        <v>0.0598084012598359</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05869663557330412</v>
+        <v>0.05685227378390726</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03322719311644964</v>
+        <v>0.03268626784058305</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03013318587273821</v>
+        <v>0.03001989351565353</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.05232304642338095</v>
+        <v>0.05234493585986279</v>
       </c>
     </row>
     <row r="19">
@@ -1384,38 +1384,38 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.002998307081598942</v>
+        <v>0.002953887353065944</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.003115943968497015</v>
+        <v>0.003102163492181381</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02080339321962323</v>
+        <v>0.02108454063668235</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.007344298395489919</v>
+        <v>0.006829682333036859</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.006462582525047398</v>
+        <v>0.007137651501852328</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01685216889536971</v>
+        <v>0.01760009376276822</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01916144346014178</v>
+        <v>0.01964679306182946</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.006114087902347311</v>
+        <v>0.00602169262401209</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.007248984511951502</v>
+        <v>0.007545190168275815</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01381666201437802</v>
+        <v>0.01385714979671079</v>
       </c>
     </row>
     <row r="21">
@@ -1426,38 +1426,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02864038490394467</v>
+        <v>0.02962002478887473</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.03062694724697901</v>
+        <v>0.02851648025768956</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.01534855572387085</v>
+        <v>0.01528213525625008</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03976203397251702</v>
+        <v>0.0412400895977961</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02180613763447348</v>
+        <v>0.02163898986017965</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02080132394655859</v>
+        <v>0.02232825247449172</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0328025767639975</v>
+        <v>0.03274830878228303</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03581267484008448</v>
+        <v>0.0353383538011138</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.017607911323309</v>
+        <v>0.01720710890757726</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.01985943620909344</v>
+        <v>0.02152356220055468</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.02641505440852812</v>
+        <v>0.02665872598003871</v>
       </c>
     </row>
     <row r="22">
@@ -1516,40 +1516,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03548964342130055</v>
+        <v>0.03574916627627434</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01705012458183687</v>
+        <v>0.01680654727021107</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01532516560899484</v>
+        <v>0.01540696778765122</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02053131993182602</v>
+        <v>0.02101356872448706</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02180676886547782</v>
+        <v>0.02164216393552792</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.008557640212138872</v>
+        <v>0.008615462882072633</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.008767733183504482</v>
+        <v>0.009018611013015288</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02043193278924532</v>
+        <v>0.02068238543363181</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03015197524698847</v>
+        <v>0.02994107699467819</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01381622354115884</v>
+        <v>0.01368124564271729</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01284982067927378</v>
+        <v>0.01296632258897719</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02179106334238444</v>
+        <v>0.02184792675216282</v>
       </c>
     </row>
     <row r="24">
@@ -1560,40 +1560,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04947550443039118</v>
+        <v>0.04963023501368954</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02737840355734297</v>
+        <v>0.02702723240421067</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.024502290166006</v>
+        <v>0.02478747712029029</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0303734528497095</v>
+        <v>0.03095068668476953</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03294482093945962</v>
+        <v>0.03352070155174604</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01628116925015008</v>
+        <v>0.01592099320318991</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0168338446887681</v>
+        <v>0.01651506734378463</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02907948275783805</v>
+        <v>0.0296450669404628</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03895813897250761</v>
+        <v>0.03885631234696532</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02011929307368974</v>
+        <v>0.0201519877272206</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01870843731909917</v>
+        <v>0.0191896210257552</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.02816835902032727</v>
+        <v>0.02856793995954426</v>
       </c>
     </row>
     <row r="25">
@@ -1866,19 +1866,19 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4196</v>
+        <v>4435</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2781</v>
+        <v>2602</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3260</v>
+        <v>2632</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
@@ -1887,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2367</v>
+        <v>2818</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7687</v>
+        <v>7952</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3618</v>
+        <v>3802</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7132</v>
+        <v>7479</v>
       </c>
     </row>
     <row r="7">
@@ -1910,40 +1910,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17852</v>
+        <v>18184</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6946</v>
+        <v>7181</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13251</v>
+        <v>14270</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12308</v>
+        <v>12040</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10353</v>
+        <v>10414</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6125</v>
+        <v>5197</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6194</v>
+        <v>6295</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>10295</v>
+        <v>10357</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>23456</v>
+        <v>25291</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9639</v>
+        <v>9019</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>15743</v>
+        <v>16842</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>19551</v>
+        <v>19818</v>
       </c>
     </row>
     <row r="8">
@@ -2046,40 +2046,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9196</v>
+        <v>9870</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1057</v>
+        <v>1070</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2516</v>
+        <v>2844</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2621</v>
+        <v>2771</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2928</v>
+        <v>3170</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>13986</v>
+        <v>14434</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2016</v>
+        <v>2048</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1039</v>
+        <v>1151</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>7457</v>
+        <v>7660</v>
       </c>
     </row>
     <row r="11">
@@ -2090,40 +2090,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>23476</v>
+        <v>24535</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14249</v>
+        <v>15504</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5160</v>
+        <v>6012</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11683</v>
+        <v>12399</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14254</v>
+        <v>13734</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5535</v>
+        <v>4494</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8518</v>
+        <v>8818</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>11315</v>
+        <v>11036</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>32141</v>
+        <v>32326</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>18548</v>
+        <v>17025</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>10290</v>
+        <v>10634</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>18837</v>
+        <v>19666</v>
       </c>
     </row>
     <row r="12">
@@ -2226,38 +2226,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16794</v>
+        <v>16035</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9727</v>
+        <v>9314</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5889</v>
+        <v>5998</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8805</v>
+        <v>9047</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2150</v>
+        <v>2190</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>4341</v>
+        <v>4326</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>22457</v>
+        <v>22463</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>12394</v>
+        <v>12509</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6092</v>
+        <v>5886</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>15212</v>
+        <v>15528</v>
       </c>
     </row>
     <row r="15">
@@ -2268,38 +2268,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38823</v>
+        <v>35444</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28557</v>
+        <v>27793</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19577</v>
+        <v>19810</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23480</v>
+        <v>25135</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12338</v>
+        <v>12960</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9063</v>
+        <v>8835</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>13389</v>
+        <v>13199</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>44335</v>
+        <v>44713</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>31878</v>
+        <v>32180</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>21090</v>
+        <v>19685</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>31627</v>
+        <v>32720</v>
       </c>
     </row>
     <row r="16">
@@ -2402,40 +2402,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>43869</v>
+        <v>43435</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>26492</v>
+        <v>26612</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19774</v>
+        <v>20250</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>25727</v>
+        <v>26107</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13693</v>
+        <v>14088</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4326</v>
+        <v>4742</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>9412</v>
+        <v>9517</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>62662</v>
+        <v>63614</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>30547</v>
+        <v>30324</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>28879</v>
+        <v>28976</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>40379</v>
+        <v>39087</v>
       </c>
     </row>
     <row r="19">
@@ -2446,40 +2446,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>72869</v>
+        <v>71643</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>51380</v>
+        <v>51093</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>41861</v>
+        <v>41799</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>47950</v>
+        <v>47905</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>33275</v>
+        <v>31915</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>10480</v>
+        <v>9852</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>18523</v>
+        <v>19425</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>22713</v>
+        <v>23561</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>94739</v>
+        <v>95793</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>58338</v>
+        <v>57721</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>53943</v>
+        <v>55320</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>64886</v>
+        <v>65650</v>
       </c>
     </row>
     <row r="20">
@@ -2582,40 +2582,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>16345</v>
+        <v>16790</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6122</v>
+        <v>5958</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8759</v>
+        <v>8768</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>16241</v>
+        <v>15900</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>8245</v>
+        <v>8364</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>10880</v>
+        <v>11296</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>7019</v>
+        <v>6983</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>25171</v>
+        <v>24791</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>28252</v>
+        <v>27563</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>20674</v>
+        <v>19215</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>19044</v>
+        <v>19021</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>45752</v>
+        <v>45046</v>
       </c>
     </row>
     <row r="23">
@@ -2626,40 +2626,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35366</v>
+        <v>35516</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19522</v>
+        <v>20020</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>24242</v>
+        <v>24492</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>34332</v>
+        <v>33520</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>23858</v>
+        <v>23656</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>28860</v>
+        <v>28723</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>22484</v>
+        <v>22257</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>47173</v>
+        <v>49457</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>53960</v>
+        <v>52265</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>42227</v>
+        <v>41539</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>40949</v>
+        <v>40796</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>72933</v>
+        <v>72963</v>
       </c>
     </row>
     <row r="24">
@@ -2762,38 +2762,38 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>25978</v>
+        <v>26330</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>8139</v>
+        <v>7568</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>6993</v>
+        <v>7723</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>14199</v>
+        <v>14830</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>29642</v>
+        <v>30393</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>8407</v>
+        <v>8280</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>9925</v>
+        <v>10331</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>14919</v>
+        <v>14963</v>
       </c>
     </row>
     <row r="27">
@@ -2804,38 +2804,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8541</v>
+        <v>8833</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>8794</v>
+        <v>8188</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3641</v>
+        <v>3625</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>49653</v>
+        <v>51499</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>24165</v>
+        <v>23980</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>22508</v>
+        <v>24160</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>27639</v>
+        <v>27593</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>55401</v>
+        <v>54667</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>24212</v>
+        <v>23661</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>27191</v>
+        <v>29469</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>28523</v>
+        <v>28786</v>
       </c>
     </row>
     <row r="28">
@@ -2938,40 +2938,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>116058</v>
+        <v>116907</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>58344</v>
+        <v>57510</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>51887</v>
+        <v>52164</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>70618</v>
+        <v>72277</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>73666</v>
+        <v>73110</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>30343</v>
+        <v>30548</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>30964</v>
+        <v>31850</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>74150</v>
+        <v>75059</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>200460</v>
+        <v>199058</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>96266</v>
+        <v>95326</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>88886</v>
+        <v>89692</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>154033</v>
+        <v>154435</v>
       </c>
     </row>
     <row r="31">
@@ -2982,40 +2982,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>161794</v>
+        <v>162300</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>93686</v>
+        <v>92485</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>82958</v>
+        <v>83924</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>104470</v>
+        <v>106456</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>111292</v>
+        <v>113237</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>57729</v>
+        <v>56452</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>59450</v>
+        <v>58325</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>105533</v>
+        <v>107585</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>259006</v>
+        <v>258329</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>140184</v>
+        <v>140412</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>129412</v>
+        <v>132741</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>199112</v>
+        <v>201936</v>
       </c>
     </row>
     <row r="32">
